--- a/upload/exames-por-setor.xlsx
+++ b/upload/exames-por-setor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>unidade</t>
   </si>
   <si>
-    <t>setor</t>
+    <t>setor_centro_custo</t>
   </si>
   <si>
     <t>ano</t>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1532" workbookViewId="0">
-      <selection activeCell="A1543" sqref="A1543:XFD1545"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1543" sqref="A1543:XFD1544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11099,10 +11099,10 @@
         <v>10.8</v>
       </c>
       <c r="G432" s="3">
-        <v>4525</v>
+        <v>4526</v>
       </c>
       <c r="H432" s="4">
-        <v>301.66666666666669</v>
+        <v>301.73333333333335</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11224,10 +11224,10 @@
         <v>9.4210526315789469</v>
       </c>
       <c r="G437" s="3">
-        <v>3988</v>
+        <v>3989</v>
       </c>
       <c r="H437" s="4">
-        <v>209.89473684210526</v>
+        <v>209.94736842105263</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14621,7 +14621,7 @@
         <v>12</v>
       </c>
       <c r="E575" s="3">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G575" s="3">
         <v>15056</v>
@@ -36310,10 +36310,10 @@
         <v>6</v>
       </c>
       <c r="E1459" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1459">
-        <v>8.0188679245283015E-2</v>
+        <v>8.9622641509433956E-2</v>
       </c>
       <c r="G1459" s="3">
         <v>142</v>
@@ -36362,16 +36362,16 @@
         <v>6</v>
       </c>
       <c r="E1461" s="3">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F1461">
-        <v>10.933333333333334</v>
+        <v>11.133333333333333</v>
       </c>
       <c r="G1461" s="3">
-        <v>1464</v>
+        <v>1494</v>
       </c>
       <c r="H1461" s="4">
-        <v>48.8</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="1462" spans="1:8">
@@ -36414,16 +36414,16 @@
         <v>7</v>
       </c>
       <c r="E1463" s="3">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="F1463">
-        <v>3.204081632653061</v>
+        <v>4.591836734693878</v>
       </c>
       <c r="G1463" s="3">
-        <v>1164</v>
+        <v>1264</v>
       </c>
       <c r="H1463" s="4">
-        <v>23.755102040816325</v>
+        <v>25.795918367346939</v>
       </c>
     </row>
     <row r="1464" spans="1:8">
@@ -36542,7 +36542,7 @@
         <v>14</v>
       </c>
       <c r="G1468" s="3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H1468" s="4"/>
     </row>
@@ -36560,16 +36560,16 @@
         <v>7</v>
       </c>
       <c r="E1469" s="3">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F1469">
-        <v>7.75</v>
+        <v>7.875</v>
       </c>
       <c r="G1469" s="3">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="H1469" s="4">
-        <v>33.4375</v>
+        <v>34.6875</v>
       </c>
     </row>
     <row r="1470" spans="1:8">
@@ -36586,16 +36586,16 @@
         <v>7</v>
       </c>
       <c r="E1470" s="3">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1470">
-        <v>2</v>
+        <v>2.0327868852459017</v>
       </c>
       <c r="G1470" s="3">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="H1470" s="4">
-        <v>19.459016393442624</v>
+        <v>19.557377049180328</v>
       </c>
     </row>
     <row r="1471" spans="1:8">
@@ -36612,10 +36612,10 @@
         <v>7</v>
       </c>
       <c r="E1471" s="3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1471" s="3">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="H1471" s="4"/>
     </row>
@@ -36659,16 +36659,16 @@
         <v>7</v>
       </c>
       <c r="E1473" s="3">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F1473">
-        <v>5.5</v>
+        <v>5.7666666666666666</v>
       </c>
       <c r="G1473" s="3">
-        <v>4693</v>
+        <v>4725</v>
       </c>
       <c r="H1473" s="4">
-        <v>156.43333333333334</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="1474" spans="1:8">
@@ -36685,16 +36685,16 @@
         <v>7</v>
       </c>
       <c r="E1474" s="3">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F1474">
-        <v>22.2</v>
+        <v>23.8</v>
       </c>
       <c r="G1474" s="3">
-        <v>1038</v>
+        <v>1088</v>
       </c>
       <c r="H1474" s="4">
-        <v>103.8</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="1475" spans="1:8">
@@ -36904,16 +36904,16 @@
         <v>8</v>
       </c>
       <c r="E1483" s="3">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F1483">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1483" s="3">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="H1483" s="4">
-        <v>62.75</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="1484" spans="1:8">
@@ -36930,10 +36930,10 @@
         <v>8</v>
       </c>
       <c r="E1484" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1484">
-        <v>1.3529411764705883</v>
+        <v>1.392156862745098</v>
       </c>
       <c r="G1484" s="3">
         <v>612</v>
@@ -37029,16 +37029,16 @@
         <v>8</v>
       </c>
       <c r="E1488" s="3">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="F1488">
-        <v>11.277777777777779</v>
+        <v>12.388888888888889</v>
       </c>
       <c r="G1488" s="3">
-        <v>1196</v>
+        <v>1288</v>
       </c>
       <c r="H1488" s="4">
-        <v>66.444444444444443</v>
+        <v>71.555555555555557</v>
       </c>
     </row>
     <row r="1489" spans="1:8">
@@ -37055,16 +37055,16 @@
         <v>9</v>
       </c>
       <c r="E1489" s="3">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F1489">
-        <v>1.0196078431372548</v>
+        <v>1.2549019607843137</v>
       </c>
       <c r="G1489" s="3">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="H1489" s="4">
-        <v>10.823529411764707</v>
+        <v>11.294117647058824</v>
       </c>
     </row>
     <row r="1490" spans="1:8">
@@ -37254,10 +37254,10 @@
         <v>4</v>
       </c>
       <c r="G1497" s="3">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="H1497" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1498" spans="1:8">
@@ -37373,16 +37373,16 @@
         <v>9</v>
       </c>
       <c r="E1502" s="3">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F1502">
-        <v>6.1363636363636367</v>
+        <v>6.3181818181818183</v>
       </c>
       <c r="G1502" s="3">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H1502" s="4">
-        <v>24.5</v>
+        <v>24.863636363636363</v>
       </c>
     </row>
     <row r="1503" spans="1:8">
@@ -38071,10 +38071,10 @@
         <v>12</v>
       </c>
       <c r="E1530" s="3">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1530">
-        <v>5.0869565217391308</v>
+        <v>5.1304347826086953</v>
       </c>
       <c r="G1530" s="3">
         <v>964</v>
@@ -38264,10 +38264,10 @@
         <v>12</v>
       </c>
       <c r="E1538" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1538">
-        <v>2.9310344827586206</v>
+        <v>2.9655172413793105</v>
       </c>
       <c r="G1538" s="3">
         <v>622</v>
@@ -38337,16 +38337,16 @@
         <v>12</v>
       </c>
       <c r="E1541" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1541">
-        <v>2.3513513513513513</v>
+        <v>2.3243243243243241</v>
       </c>
       <c r="G1541" s="3">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="H1541" s="4">
-        <v>56.486486486486484</v>
+        <v>56.405405405405403</v>
       </c>
     </row>
     <row r="1542" spans="1:8">
@@ -38363,10 +38363,10 @@
         <v>12</v>
       </c>
       <c r="E1542" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1542">
-        <v>6.916666666666667</v>
+        <v>7</v>
       </c>
       <c r="G1542" s="3">
         <v>552</v>
